--- a/src/test/resources/testdata/testdata.xlsx
+++ b/src/test/resources/testdata/testdata.xlsx
@@ -1,13 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SeleniumTrainingWorkspace\TestAutomationFramework\src\test\resources\testdata\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0E20C80-6298-4FF5-B930-3F726283D917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="loginTest" sheetId="1" r:id="rId1"/>
+    <sheet name="searchTest" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,12 +25,55 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>aaa@yopmail.com</t>
+  </si>
+  <si>
+    <t>Test@123</t>
+  </si>
+  <si>
+    <t>testing@yopmail.com</t>
+  </si>
+  <si>
+    <t>Search Items</t>
+  </si>
+  <si>
+    <t>dell</t>
+  </si>
+  <si>
+    <t>mac</t>
+  </si>
+  <si>
+    <t>hp</t>
+  </si>
+  <si>
+    <t>ball</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -46,13 +96,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -330,13 +383,111 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="24.1796875" customWidth="1"/>
+    <col min="2" max="2" width="18.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{652839A5-CD16-482E-A555-ADAB5ED59079}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{A1578B99-8D19-4F25-8EA2-54573124E997}"/>
+    <hyperlink ref="B3" r:id="rId3" xr:uid="{0F9C482D-481F-4B65-9F9B-4441C2B38ED7}"/>
+    <hyperlink ref="A4" r:id="rId4" xr:uid="{F890D72F-5FEA-42DB-B3F8-2D9923E0A287}"/>
+    <hyperlink ref="A5" r:id="rId5" xr:uid="{5634AECA-CB40-4BF4-87A9-664760D9298A}"/>
+    <hyperlink ref="B5" r:id="rId6" xr:uid="{29503217-2B21-4BCA-8452-B9C54B41E61A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A898E14-9099-4A17-9179-8AC6205314D6}">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="20.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/test/resources/testdata/testdata.xlsx
+++ b/src/test/resources/testdata/testdata.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SeleniumTrainingWorkspace\TestAutomationFramework\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0E20C80-6298-4FF5-B930-3F726283D917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33609841-3332-42F0-A33C-174B86ADC423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loginTest" sheetId="1" r:id="rId1"/>
-    <sheet name="searchTest" sheetId="2" r:id="rId2"/>
+    <sheet name="SearchTest" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>username</t>
   </si>
@@ -43,9 +43,6 @@
     <t>testing@yopmail.com</t>
   </si>
   <si>
-    <t>Search Items</t>
-  </si>
-  <si>
     <t>dell</t>
   </si>
   <si>
@@ -56,6 +53,12 @@
   </si>
   <si>
     <t>ball</t>
+  </si>
+  <si>
+    <t>searchData</t>
+  </si>
+  <si>
+    <t>Test123</t>
   </si>
 </sst>
 </file>
@@ -384,10 +387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -406,10 +409,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>123</v>
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -424,26 +427,17 @@
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>3</v>
+      <c r="B4" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{652839A5-CD16-482E-A555-ADAB5ED59079}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{A1578B99-8D19-4F25-8EA2-54573124E997}"/>
-    <hyperlink ref="B3" r:id="rId3" xr:uid="{0F9C482D-481F-4B65-9F9B-4441C2B38ED7}"/>
-    <hyperlink ref="A4" r:id="rId4" xr:uid="{F890D72F-5FEA-42DB-B3F8-2D9923E0A287}"/>
-    <hyperlink ref="A5" r:id="rId5" xr:uid="{5634AECA-CB40-4BF4-87A9-664760D9298A}"/>
-    <hyperlink ref="B5" r:id="rId6" xr:uid="{29503217-2B21-4BCA-8452-B9C54B41E61A}"/>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{652839A5-CD16-482E-A555-ADAB5ED59079}"/>
+    <hyperlink ref="A2" r:id="rId2" xr:uid="{5634AECA-CB40-4BF4-87A9-664760D9298A}"/>
+    <hyperlink ref="B3" r:id="rId3" xr:uid="{29503217-2B21-4BCA-8452-B9C54B41E61A}"/>
+    <hyperlink ref="B2" r:id="rId4" xr:uid="{BDABA47B-6FC1-43C6-B754-77BBD6430BCC}"/>
+    <hyperlink ref="A4" r:id="rId5" xr:uid="{B687EC7E-99B2-4091-B569-83EB57210627}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -453,8 +447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A898E14-9099-4A17-9179-8AC6205314D6}">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -464,27 +458,27 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testdata/testdata.xlsx
+++ b/src/test/resources/testdata/testdata.xlsx
@@ -5,16 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SeleniumTrainingWorkspace\TestAutomationFramework\src\test\resources\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SeleniumTrainingWorkspace\SeleniumTrainingProject1\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33609841-3332-42F0-A33C-174B86ADC423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26A29633-9EFB-47C0-B0F6-5B3B9D258237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="loginTest" sheetId="1" r:id="rId1"/>
-    <sheet name="SearchTest" sheetId="2" r:id="rId2"/>
+    <sheet name="loginWithValidUser" sheetId="1" r:id="rId1"/>
+    <sheet name="verifyIfMacProductsAreDisplayed" sheetId="2" r:id="rId2"/>
+    <sheet name="verifyViewCartErrormessage" sheetId="6" r:id="rId3"/>
+    <sheet name="addImacToCart" sheetId="3" r:id="rId4"/>
+    <sheet name="verifyPriceValuesInItemsBucket" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,15 +29,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t>username</t>
   </si>
   <si>
     <t>password</t>
-  </si>
-  <si>
-    <t>aaa@yopmail.com</t>
   </si>
   <si>
     <t>Test@123</t>
@@ -43,22 +43,10 @@
     <t>testing@yopmail.com</t>
   </si>
   <si>
-    <t>dell</t>
-  </si>
-  <si>
     <t>mac</t>
   </si>
   <si>
-    <t>hp</t>
-  </si>
-  <si>
-    <t>ball</t>
-  </si>
-  <si>
     <t>searchData</t>
-  </si>
-  <si>
-    <t>Test123</t>
   </si>
 </sst>
 </file>
@@ -387,10 +375,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -409,35 +397,16 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" xr:uid="{652839A5-CD16-482E-A555-ADAB5ED59079}"/>
-    <hyperlink ref="A2" r:id="rId2" xr:uid="{5634AECA-CB40-4BF4-87A9-664760D9298A}"/>
-    <hyperlink ref="B3" r:id="rId3" xr:uid="{29503217-2B21-4BCA-8452-B9C54B41E61A}"/>
-    <hyperlink ref="B2" r:id="rId4" xr:uid="{BDABA47B-6FC1-43C6-B754-77BBD6430BCC}"/>
-    <hyperlink ref="A4" r:id="rId5" xr:uid="{B687EC7E-99B2-4091-B569-83EB57210627}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{5634AECA-CB40-4BF4-87A9-664760D9298A}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{BDABA47B-6FC1-43C6-B754-77BBD6430BCC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -445,10 +414,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A898E14-9099-4A17-9179-8AC6205314D6}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -458,27 +427,90 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{551268B4-9C5D-448A-BC34-B697ADB51E7E}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>8</v>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE99D0BF-1111-431C-9CB8-1C227A4E50FB}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C10489E-1A13-4C8C-AAA9-E7D3E9DC1696}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
